--- a/medicine/Enfance/Robert_Soulières/Robert_Soulières.xlsx
+++ b/medicine/Enfance/Robert_Soulières/Robert_Soulières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert_Souli%C3%A8res</t>
+          <t>Robert_Soulières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Soulières est un écrivain québécois né le 4 janvier 1950 à Montréal[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Soulières est un écrivain québécois né le 4 janvier 1950 à Montréal.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert_Souli%C3%A8res</t>
+          <t>Robert_Soulières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur de plusieurs livres, dont notamment Un cadavre de classe qui a deux suites, Un cadavre de luxe et Un cadavre stupéfiant. Il a aussi écrit le livre Un été sur le Richelieu et le roman Casse-tête chinois.
-En 1996, il fonde Soulières éditeur[2].
+En 1996, il fonde Soulières éditeur.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robert_Souli%C3%A8res</t>
+          <t>Robert_Soulières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1981 - Prix Alvine-Bélisle pour Le visiteur du soir
-1984 - (international) « Honour List »[3] de l' IBBY, catégorie Auteur, pour L'Homme aux oiseaux (illustré par Micheline Pelletier)
+1984 - (international) « Honour List » de l' IBBY, catégorie Auteur, pour L'Homme aux oiseaux (illustré par Micheline Pelletier)
 1985 - Prix de littérature de jeunesse du Conseil des Arts du Canada pour Casse-tête chinois
 1998 - Prix du livre M. Christie pour Un cadavre de classe
 1999 - Prix du livre M. Christie pour Une gardienne pour Étienne, illustré par Anne Villeneuve
